--- a/2021年度/port_data_weekly.xlsx
+++ b/2021年度/port_data_weekly.xlsx
@@ -1,46 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a6fcaf58e44607b/デスクトップ/自己研鑽用/02_FT勉強会/2021年度/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_CA042BC74071F47EEF51B035555DCE3A27C2517A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4A8DD5A-2D03-4E0E-9E42-F3B9C59186C8}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NK225_Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NK225_Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Adj Close</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Symbols</t>
+  </si>
+  <si>
+    <t>^DJI</t>
+  </si>
+  <si>
+    <t>^GSPC</t>
+  </si>
+  <si>
+    <t>MSCI</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,124 +105,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -454,948 +435,892 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Attributes</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Adj Close</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Symbols</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>^DJI</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>^GSPC</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>MSCI</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>^DJI</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>^GSPC</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>MSCI</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>^DJI</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>^GSPC</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>MSCI</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>^DJI</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>^GSPC</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>MSCI</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>^DJI</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>^GSPC</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>MSCI</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>^DJI</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>^GSPC</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>MSCI</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>39447</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>13110.0498046875</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1451.150024414062</v>
       </c>
-      <c r="D4" t="n">
-        <v>24.02112579345703</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>24.021125793457031</v>
+      </c>
+      <c r="E4">
         <v>13110.0498046875</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1451.150024414062</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>26.10000038146973</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>13262.1396484375</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>1472.670043945312</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>28.45000076293945</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>13055.830078125</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>1443.489990234375</v>
       </c>
-      <c r="M4" t="n">
-        <v>22.05999946594238</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4">
+        <v>22.059999465942379</v>
+      </c>
+      <c r="N4">
         <v>13231.009765625</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>1468.0400390625</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>23</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>242570000</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>3941010000</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>11770500</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>39813</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>13043.9599609375</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1447.160034179688</v>
       </c>
-      <c r="D5" t="n">
-        <v>31.15383720397949</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>31.153837203979489</v>
+      </c>
+      <c r="E5">
         <v>13043.9599609375</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1447.160034179688</v>
       </c>
-      <c r="G5" t="n">
-        <v>33.84999847412109</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>33.849998474121087</v>
+      </c>
+      <c r="H5">
         <v>13279.5400390625</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>1471.77001953125</v>
       </c>
-      <c r="J5" t="n">
-        <v>37.95000076293945</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J5">
+        <v>37.950000762939453</v>
+      </c>
+      <c r="K5">
         <v>12991.3701171875</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>1442.069946289062</v>
       </c>
-      <c r="M5" t="n">
-        <v>33.11999893188477</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5">
+        <v>33.119998931884773</v>
+      </c>
+      <c r="N5">
         <v>13261.8203125</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>1467.969970703125</v>
       </c>
-      <c r="P5" t="n">
-        <v>37.81999969482422</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P5">
+        <v>37.819999694824219</v>
+      </c>
+      <c r="Q5">
         <v>239580000</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>3452650000</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>442900</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>40178</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>9034.6904296875</v>
       </c>
-      <c r="C6" t="n">
-        <v>931.7999877929688</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17.16452026367188</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="C6">
+        <v>931.79998779296875</v>
+      </c>
+      <c r="D6">
+        <v>17.164520263671879</v>
+      </c>
+      <c r="E6">
         <v>9034.6904296875</v>
       </c>
-      <c r="F6" t="n">
-        <v>931.7999877929688</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>931.79998779296875</v>
+      </c>
+      <c r="G6">
         <v>18.64999961853027</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>9065.2802734375</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>934.72998046875</v>
       </c>
-      <c r="J6" t="n">
-        <v>18.80999946594238</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J6">
+        <v>18.809999465942379</v>
+      </c>
+      <c r="K6">
         <v>8760.7802734375</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>899.3499755859375</v>
       </c>
-      <c r="M6" t="n">
-        <v>17.44000053405762</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6">
+        <v>17.440000534057621</v>
+      </c>
+      <c r="N6">
         <v>8772.25</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>902.989990234375</v>
       </c>
-      <c r="P6" t="n">
-        <v>17.92000007629395</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P6">
+        <v>17.920000076293949</v>
+      </c>
+      <c r="Q6">
         <v>213700000</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>4048270000</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>344100</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>40543</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>10583.9599609375</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1132.989990234375</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>29.43277740478516</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>10583.9599609375</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1132.989990234375</v>
       </c>
-      <c r="G7" t="n">
-        <v>31.97999954223633</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>31.979999542236332</v>
+      </c>
+      <c r="H7">
         <v>10604.9697265625</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>1133.869995117188</v>
       </c>
-      <c r="J7" t="n">
-        <v>32.34000015258789</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7">
+        <v>32.340000152587891</v>
+      </c>
+      <c r="K7">
         <v>10430.6904296875</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>1116.56005859375</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>31.79999923706055</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>10430.6904296875</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>1116.56005859375</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>31.95999908447266</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>179780000</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>3991400000</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>470900</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>40908</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>11670.75</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1271.869995117188</v>
       </c>
-      <c r="D8" t="n">
-        <v>36.30778121948242</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>36.307781219482422</v>
+      </c>
+      <c r="E8">
         <v>11670.75</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1271.869995117188</v>
       </c>
-      <c r="G8" t="n">
-        <v>39.45000076293945</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8">
+        <v>39.450000762939453</v>
+      </c>
+      <c r="H8">
         <v>11711.4697265625</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>1276.170043945312</v>
       </c>
-      <c r="J8" t="n">
-        <v>39.86000061035156</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J8">
+        <v>39.860000610351563</v>
+      </c>
+      <c r="K8">
         <v>11577.349609375</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>1257.619995117188</v>
       </c>
-      <c r="M8" t="n">
-        <v>39.20000076293945</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8">
+        <v>39.200000762939453</v>
+      </c>
+      <c r="N8">
         <v>11577.4296875</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>1257.619995117188</v>
       </c>
-      <c r="P8" t="n">
-        <v>39.38000106811523</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P8">
+        <v>39.380001068115227</v>
+      </c>
+      <c r="Q8">
         <v>203420000</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>4286670000</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>568600</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>41274</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>12397.3798828125</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1277.06005859375</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>30.19666862487793</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>12397.3798828125</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1277.06005859375</v>
       </c>
-      <c r="G9" t="n">
-        <v>32.81000137329102</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>32.810001373291023</v>
+      </c>
+      <c r="H9">
         <v>12479.650390625</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>1284.619995117188</v>
       </c>
-      <c r="J9" t="n">
-        <v>33.88999938964844</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J9">
+        <v>33.889999389648438</v>
+      </c>
+      <c r="K9">
         <v>12221.1904296875</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>1258.859985351562</v>
       </c>
-      <c r="M9" t="n">
-        <v>32.68000030517578</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9">
+        <v>32.680000305175781</v>
+      </c>
+      <c r="N9">
         <v>12221.1904296875</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>1258.859985351562</v>
       </c>
-      <c r="P9" t="n">
-        <v>33.88999938964844</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P9">
+        <v>33.889999389648438</v>
+      </c>
+      <c r="Q9">
         <v>152560000</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>3943710000</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>763700</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>41639</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>13412.5498046875</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1462.420043945312</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>29.57083702087402</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>13412.5498046875</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1462.420043945312</v>
       </c>
-      <c r="G10" t="n">
-        <v>32.13000106811523</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10">
+        <v>32.130001068115227</v>
+      </c>
+      <c r="H10">
         <v>13412.7099609375</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>1462.430053710938</v>
       </c>
-      <c r="J10" t="n">
-        <v>32.13999938964844</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J10">
+        <v>32.139999389648438</v>
+      </c>
+      <c r="K10">
         <v>13104.2998046875</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>1426.18994140625</v>
       </c>
-      <c r="M10" t="n">
-        <v>31.59000015258789</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10">
+        <v>31.590000152587891</v>
+      </c>
+      <c r="N10">
         <v>13104.2998046875</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>1426.18994140625</v>
       </c>
-      <c r="P10" t="n">
-        <v>31.65999984741211</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P10">
+        <v>31.659999847412109</v>
+      </c>
+      <c r="Q10">
         <v>161430000</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>4202600000</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>650600</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>42004</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>16441.349609375</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1831.97998046875</v>
       </c>
-      <c r="D11" t="n">
-        <v>39.71308517456055</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>39.713085174560547</v>
+      </c>
+      <c r="E11">
         <v>16441.349609375</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1831.97998046875</v>
       </c>
-      <c r="G11" t="n">
-        <v>43.15000152587891</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11">
+        <v>43.150001525878913</v>
+      </c>
+      <c r="H11">
         <v>16573.0703125</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>1845.859985351562</v>
       </c>
-      <c r="J11" t="n">
-        <v>43.63999938964844</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J11">
+        <v>43.639999389648438</v>
+      </c>
+      <c r="K11">
         <v>16416.490234375</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>1827.739990234375</v>
       </c>
-      <c r="M11" t="n">
-        <v>43.09000015258789</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11">
+        <v>43.090000152587891</v>
+      </c>
+      <c r="N11">
         <v>16572.169921875</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>1845.859985351562</v>
       </c>
-      <c r="P11" t="n">
-        <v>43.63000106811523</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P11">
+        <v>43.630001068115227</v>
+      </c>
+      <c r="Q11">
         <v>80960000</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>3080600000</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>459700</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
         <v>42369</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>17832.990234375</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>2058.199951171875</v>
       </c>
-      <c r="D12" t="n">
-        <v>44.06932830810547</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>44.069328308105469</v>
+      </c>
+      <c r="E12">
         <v>17832.990234375</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>2058.199951171875</v>
       </c>
-      <c r="G12" t="n">
-        <v>47.68999862670898</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="G12">
+        <v>47.689998626708977</v>
+      </c>
+      <c r="H12">
         <v>17951.779296875</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>2072.360107421875</v>
       </c>
-      <c r="J12" t="n">
-        <v>47.93999862670898</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J12">
+        <v>47.939998626708977</v>
+      </c>
+      <c r="K12">
         <v>17731.30078125</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>2046.0400390625</v>
       </c>
-      <c r="M12" t="n">
-        <v>46.93000030517578</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12">
+        <v>46.930000305175781</v>
+      </c>
+      <c r="N12">
         <v>17823.0703125</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>2058.89990234375</v>
       </c>
-      <c r="P12" t="n">
-        <v>47.68999862670898</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P12">
+        <v>47.689998626708977</v>
+      </c>
+      <c r="Q12">
         <v>76270000</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>2708700000</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>477500</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
         <v>42735</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>17148.939453125</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2012.660034179688</v>
       </c>
-      <c r="D13" t="n">
-        <v>66.09255981445312</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>66.092559814453125</v>
+      </c>
+      <c r="E13">
         <v>17148.939453125</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>2012.660034179688</v>
       </c>
-      <c r="G13" t="n">
-        <v>70.61000061035156</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13">
+        <v>70.610000610351563</v>
+      </c>
+      <c r="H13">
         <v>17405.48046875</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>2038.199951171875</v>
       </c>
-      <c r="J13" t="n">
-        <v>71.09999847412109</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J13">
+        <v>71.099998474121094</v>
+      </c>
+      <c r="K13">
         <v>16957.630859375</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>1989.680053710938</v>
       </c>
-      <c r="M13" t="n">
-        <v>70.05000305175781</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13">
+        <v>70.050003051757813</v>
+      </c>
+      <c r="N13">
         <v>17405.48046875</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>2038.199951171875</v>
       </c>
-      <c r="P13" t="n">
-        <v>71.09999847412109</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P13">
+        <v>71.099998474121094</v>
+      </c>
+      <c r="Q13">
         <v>148060000</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>4304880000</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>752700</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>43100</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>19881.759765625</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2257.830078125</v>
       </c>
-      <c r="D14" t="n">
-        <v>74.62174224853516</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>74.621742248535156</v>
+      </c>
+      <c r="E14">
         <v>19881.759765625</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>2257.830078125</v>
       </c>
-      <c r="G14" t="n">
-        <v>78.70999908447266</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14">
+        <v>78.709999084472656</v>
+      </c>
+      <c r="H14">
         <v>19938.529296875</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>2263.8798828125</v>
       </c>
-      <c r="J14" t="n">
-        <v>79.79000091552734</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J14">
+        <v>79.790000915527344</v>
+      </c>
+      <c r="K14">
         <v>19775.9296875</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>2245.1298828125</v>
       </c>
-      <c r="M14" t="n">
-        <v>78.40000152587891</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14">
+        <v>78.400001525878906</v>
+      </c>
+      <c r="N14">
         <v>19872.859375</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>2251.570068359375</v>
       </c>
-      <c r="P14" t="n">
-        <v>79.77999877929688</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P14">
+        <v>79.779998779296875</v>
+      </c>
+      <c r="Q14">
         <v>339180000</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>3770530000</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>646000</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
         <v>43465</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>24824.009765625</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2695.81005859375</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>122.5571975708008</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>24824.009765625</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>2695.81005859375</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>127.6800003051758</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>24864.189453125</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>2695.889892578125</v>
       </c>
-      <c r="J15" t="n">
-        <v>128.0399932861328</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J15">
+        <v>128.03999328613281</v>
+      </c>
+      <c r="K15">
         <v>24741.69921875</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>2682.360107421875</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>126.5100021362305</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>24809.349609375</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>2683.72998046875</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>127.5100021362305</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>341130000</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>3367250000</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>562700</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
         <v>43830</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>23346.240234375</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2510.030029296875</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>142.7877197265625</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>23346.240234375</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>2510.030029296875</v>
       </c>
-      <c r="G16" t="n">
-        <v>146.9400024414062</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16">
+        <v>146.94000244140619</v>
+      </c>
+      <c r="H16">
         <v>23413.470703125</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>2519.489990234375</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>148.5299987792969</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>22928.58984375</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>2467.469970703125</v>
       </c>
-      <c r="M16" t="n">
-        <v>144.6900024414062</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16">
+        <v>144.69000244140619</v>
+      </c>
+      <c r="N16">
         <v>23058.609375</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>2476.9599609375</v>
       </c>
-      <c r="P16" t="n">
-        <v>144.6900024414062</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P16">
+        <v>144.69000244140619</v>
+      </c>
+      <c r="Q16">
         <v>321570000</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>3733160000</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>637500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>